--- a/excelkokeet/students-small.xlsx
+++ b/excelkokeet/students-small.xlsx
@@ -192,20 +192,20 @@
     <t>severi.savukoski@helsinki.fi</t>
   </si>
   <si>
-    <t>Unnaslahti</t>
-  </si>
-  <si>
-    <t>Jenna Kristiina</t>
-  </si>
-  <si>
-    <t>jenna.unnaslahti@helsinki.fi</t>
+    <t>Suomala</t>
+  </si>
+  <si>
+    <t>Heli Maria</t>
+  </si>
+  <si>
+    <t>heli.suomala@helsinki.fi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,11 +340,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="34">
@@ -766,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -809,7 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1618,12 +1612,12 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="28">
-      <c r="A21" s="16" t="str">
-        <f>"12345"</f>
-        <v>12345</v>
+      <c r="A21" s="10" t="str">
+        <f>"012029587"</f>
+        <v>012029587</v>
       </c>
       <c r="B21" s="11">
-        <v>33837</v>
+        <v>28659</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>57</v>
@@ -1632,10 +1626,10 @@
         <v>58</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F21" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>29</v>
@@ -1645,8 +1639,8 @@
         <v>59</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f>"0445333280"</f>
-        <v>0445333280</v>
+        <f>"050-5770321"</f>
+        <v>050-5770321</v>
       </c>
       <c r="K21" s="12"/>
     </row>
